--- a/public/static/agriculturedata/4.全国各省份第一产业对比分析.xlsx
+++ b/public/static/agriculturedata/4.全国各省份第一产业对比分析.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
-    <t>区域</t>
-  </si>
-  <si>
     <t>北京</t>
   </si>
   <si>
@@ -123,6 +120,10 @@
   </si>
   <si>
     <t>2012年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,29 +487,29 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0.88</v>
@@ -523,7 +524,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>1.58</v>
@@ -538,7 +539,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -553,7 +554,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -568,7 +569,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -583,7 +584,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -598,7 +599,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -613,7 +614,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -628,7 +629,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>0.66</v>
@@ -643,7 +644,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -658,7 +659,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -673,7 +674,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -688,7 +689,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -703,7 +704,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -718,7 +719,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -733,7 +734,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -748,7 +749,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -763,7 +764,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -778,7 +779,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -793,7 +794,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -808,7 +809,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -823,7 +824,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>8.65</v>
@@ -838,7 +839,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -853,7 +854,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -868,7 +869,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -883,7 +884,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -898,7 +899,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -913,7 +914,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -928,7 +929,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -943,7 +944,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -958,7 +959,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
